--- a/data/extracted_data/raw/Yang_etal_2021_Fig1-3.xlsx
+++ b/data/extracted_data/raw/Yang_etal_2021_Fig1-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2F3E15-AD6E-F143-BA35-A1BB89448CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB4A2F4-3896-834B-BB89-752B2A129003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16340" yWindow="500" windowWidth="19500" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="30360" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,6 @@
   </si>
   <si>
     <t>Yang et al. 2021</t>
-  </si>
-  <si>
-    <t>Viscera</t>
-  </si>
-  <si>
-    <t>Mantle+Gill</t>
-  </si>
-  <si>
-    <t>Muscle</t>
   </si>
   <si>
     <t>PS+CMC</t>
@@ -68,6 +59,15 @@
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>viscera</t>
+  </si>
+  <si>
+    <t>mantle+gills</t>
+  </si>
+  <si>
+    <t>muscle</t>
   </si>
 </sst>
 </file>
@@ -437,18 +437,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -456,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -476,19 +473,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4600</v>
+        <v>4588.4146341463402</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -496,19 +493,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4300</v>
+        <v>4573.1707317073096</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -516,19 +513,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4000</v>
+        <v>4573.1707317073096</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -536,19 +533,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>3200</v>
+        <v>3018.2926829268199</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -556,19 +553,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2000</v>
+        <v>3201.2195121951199</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -576,19 +573,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1700</v>
+        <v>3780.4878048780402</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -596,19 +593,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>4300</v>
+        <v>2164.6341463414601</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -616,19 +613,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>3900</v>
+        <v>3201.2195121951199</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -636,19 +633,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10">
-        <v>3400</v>
+        <v>3902.4390243902399</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -656,19 +653,19 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
-        <v>2500</v>
+        <v>1219.5121951219501</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -676,19 +673,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>1300</v>
+        <v>1676.8292682926799</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -696,19 +693,19 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>700</v>
+        <v>2621.9512195121902</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -716,19 +713,19 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>4400</v>
+        <v>548.780487804877</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -736,19 +733,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>3700</v>
+        <v>609.75609756097401</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -756,19 +753,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>3100</v>
+        <v>1143.2926829268199</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -776,19 +773,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>1800</v>
+        <v>411.585365853658</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -796,19 +793,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>800</v>
+        <v>457.31707317073102</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -816,19 +813,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>13</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>1128.0487804878001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -836,19 +833,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>700</v>
+        <v>659.55533117915797</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -856,19 +853,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>670</v>
+        <v>594.16562749386605</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -876,19 +873,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22">
-        <v>610</v>
+        <v>495.20920925012399</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -896,19 +893,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
       <c r="F23">
-        <v>520</v>
+        <v>455.539455681047</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -916,19 +913,19 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>9</v>
       </c>
       <c r="F24">
-        <v>400</v>
+        <v>288.14181424669999</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -936,19 +933,19 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>13</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>312.02828835762102</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -956,19 +953,19 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>640</v>
+        <v>661.85286103542205</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -976,19 +973,19 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>600</v>
+        <v>661.85286103542205</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -996,19 +993,19 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>540</v>
+        <v>440.59945504087199</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1016,19 +1013,19 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>450</v>
+        <v>534.05994550408695</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1036,19 +1033,19 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>290</v>
+        <v>286.103542234332</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1056,19 +1053,19 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>200</v>
+        <v>413.89645776566698</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1076,19 +1073,19 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>650</v>
+        <v>236.51226158038099</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1096,19 +1093,19 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>590</v>
+        <v>329.97275204359602</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1116,19 +1113,19 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>500</v>
+        <v>196.45776566757499</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1136,19 +1133,19 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F35">
-        <v>400</v>
+        <v>263.21525885558498</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1156,19 +1153,19 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F36">
-        <v>230</v>
+        <v>150.68119891008101</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1176,19 +1173,19 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E37">
         <v>13</v>
       </c>
       <c r="F37">
-        <v>150</v>
+        <v>204.08719346049</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1196,19 +1193,19 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>620</v>
+        <v>544.32624113475197</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1216,19 +1213,19 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>600</v>
+        <v>544.32624113475197</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1236,19 +1233,19 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>540</v>
+        <v>544.32624113475197</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1256,19 +1253,19 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>460</v>
+        <v>367.02127659574398</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1276,19 +1273,19 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>360</v>
+        <v>485.81560283687901</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1296,19 +1293,19 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>260</v>
+        <v>478.723404255319</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1316,19 +1313,19 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>600</v>
+        <v>234.04255319148899</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1336,19 +1333,19 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>570</v>
+        <v>455.67375886524798</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1356,19 +1353,19 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="F46">
-        <v>510</v>
+        <v>452.127659574468</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1376,19 +1373,19 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
       <c r="F47">
-        <v>430</v>
+        <v>166.666666666666</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1396,19 +1393,19 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>300</v>
+        <v>375.88652482269498</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1416,19 +1413,19 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>210</v>
+        <v>351.063829787234</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1436,19 +1433,19 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F50">
-        <v>620</v>
+        <v>159.57446808510599</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1456,19 +1453,19 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F51">
-        <v>580</v>
+        <v>313.82978723404199</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1476,19 +1473,19 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F52">
-        <v>510</v>
+        <v>303.191489361702</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1496,19 +1493,19 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F53">
-        <v>390</v>
+        <v>67.375886524822405</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1516,19 +1513,19 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F54">
-        <v>250</v>
+        <v>248.22695035461001</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1536,19 +1533,19 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E55">
         <v>13</v>
       </c>
       <c r="F55">
-        <v>180</v>
+        <v>276.59574468084998</v>
       </c>
     </row>
   </sheetData>
